--- a/data/xlsx/02222019.xlsx
+++ b/data/xlsx/02222019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C068E6B-195C-CF4C-A74B-417DE45E8E31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95A0D94-88D2-D845-9E92-4A712E6661DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="137">
   <si>
     <t>Category</t>
   </si>
@@ -250,9 +250,6 @@
     <t>SUSPECT STOP</t>
   </si>
   <si>
-    <t>CLOSED</t>
-  </si>
-  <si>
     <t>21:05</t>
   </si>
   <si>
@@ -262,9 +259,6 @@
     <t>TRAFFIC STOP</t>
   </si>
   <si>
-    <t>WARNING ISSUED</t>
-  </si>
-  <si>
     <t>21:15</t>
   </si>
   <si>
@@ -274,9 +268,6 @@
     <t>TRAFFIC STOP</t>
   </si>
   <si>
-    <t>WARNING ISSUED</t>
-  </si>
-  <si>
     <t>21:29</t>
   </si>
   <si>
@@ -286,9 +277,6 @@
     <t>TRAFFIC STOP</t>
   </si>
   <si>
-    <t>CLOSED BY CITATION</t>
-  </si>
-  <si>
     <t>21:50</t>
   </si>
   <si>
@@ -298,9 +286,6 @@
     <t>TRAFFIC STOP</t>
   </si>
   <si>
-    <t>CLOSED BY CITATION</t>
-  </si>
-  <si>
     <t>21:55</t>
   </si>
   <si>
@@ -313,9 +298,6 @@
     <t>HELLMAN TENNIS COURTS</t>
   </si>
   <si>
-    <t>CLOSED</t>
-  </si>
-  <si>
     <t>21:56</t>
   </si>
   <si>
@@ -328,9 +310,6 @@
     <t>MCCONE HALL</t>
   </si>
   <si>
-    <t>CLOSED</t>
-  </si>
-  <si>
     <t>22:16</t>
   </si>
   <si>
@@ -340,9 +319,6 @@
     <t>TRAFFIC STOP</t>
   </si>
   <si>
-    <t>CLOSED BY CITATION</t>
-  </si>
-  <si>
     <t>23:10</t>
   </si>
   <si>
@@ -352,9 +328,6 @@
     <t>GREEK THEATER</t>
   </si>
   <si>
-    <t>CLOSED</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -376,20 +349,12 @@
     <t>TAMPERING WITH VEHICLE-REPORT</t>
   </si>
   <si>
-    <t>(MW-32-E) REPORTS VEHICLE TAMPERING TO ORANGE PONTIAC VIBE, RSF GARAGE.
-SUSPECT: MW, MID 30`S, APOX 5`5`, TEAL BEANIE, BLUE BACKPACK, GREEN PANTS</t>
-  </si>
-  <si>
     <t>DISORDERLY CONDUCT</t>
   </si>
   <si>
     <t>(FA-18-S) REPORTS THE THEFT OF HER PURSE AND CONTENTS, UNIT 2-GRIFFITH. TOTAL LOSS OF $537.00</t>
   </si>
   <si>
-    <t>(FWA-E) REPORTS HATE INCIDENT, NORTH GATE.
-SUSPECT: MALE PACIFIC ISLANDER, DARK COMPLEXION, LATE 20`S -EARLY 30`S , LONG BROWN HAIR PASSED SHOULDERS, LONG WHITE TYE DYE PRINTER WITH BLUE DOTS, LT COLOR JEANS.</t>
-  </si>
-  <si>
     <t>CRIMINAL THREATS</t>
   </si>
   <si>
@@ -460,6 +425,12 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>(MW-32-E) REPORTS VEHICLE TAMPERING TO ORANGE PONTIAC VIBE, RSF GARAGE. SUSPECT: MW, MID 30`S, APOX 5`5`, TEAL BEANIE, BLUE BACKPACK, GREEN PANTS</t>
+  </si>
+  <si>
+    <t>(FWA-E) REPORTS HATE INCIDENT, NORTH GATE. SUSPECT: MALE PACIFIC ISLANDER, DARK COMPLEXION, LATE 20`S -EARLY 30`S , LONG BROWN HAIR PASSED SHOULDERS, LONG WHITE TYE DYE PRINTER WITH BLUE DOTS, LT COLOR JEANS.</t>
   </si>
 </sst>
 </file>
@@ -856,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -869,16 +840,14 @@
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="4" max="5" width="19"/>
     <col min="8" max="8" width="19"/>
-    <col min="9" max="10" width="21"/>
-    <col min="11" max="12" width="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -890,17 +859,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
         <v>43518</v>
       </c>
@@ -914,7 +882,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F2">
         <v>37.866335999999997</v>
@@ -923,11 +891,10 @@
         <v>-122.257558</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>43518</v>
       </c>
@@ -941,7 +908,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F3">
         <v>37.867629999999998</v>
@@ -950,11 +917,10 @@
         <v>-122.267838</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>43518</v>
       </c>
@@ -962,10 +928,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
@@ -977,12 +943,10 @@
         <v>-122.258712</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>43518</v>
       </c>
@@ -993,7 +957,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -1005,11 +969,10 @@
         <v>-122.252501</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="140">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="140">
       <c r="A6" s="4">
         <v>43518</v>
       </c>
@@ -1020,7 +983,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -1032,12 +995,10 @@
         <v>-122.262722</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>43518</v>
       </c>
@@ -1045,7 +1006,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
@@ -1060,11 +1021,10 @@
         <v>-122.26058500000001</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>43518</v>
       </c>
@@ -1075,7 +1035,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
@@ -1087,11 +1047,10 @@
         <v>-122.253736</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>43518</v>
       </c>
@@ -1099,13 +1058,13 @@
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F9">
         <v>37.87323</v>
@@ -1114,11 +1073,10 @@
         <v>-122.302232</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>43518</v>
       </c>
@@ -1132,7 +1090,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F10">
         <v>37.866759999999999</v>
@@ -1141,11 +1099,10 @@
         <v>-122.25416199999999</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>43518</v>
       </c>
@@ -1168,12 +1125,10 @@
         <v>-122.25421</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="196">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="196">
       <c r="A12" s="4">
         <v>43518</v>
       </c>
@@ -1196,12 +1151,10 @@
         <v>-122.26054499999999</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4">
         <v>43518</v>
       </c>
@@ -1209,7 +1162,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>25</v>
@@ -1224,11 +1177,10 @@
         <v>-122.260222</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4">
         <v>43518</v>
       </c>
@@ -1251,11 +1203,10 @@
         <v>-122.262722</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="4">
         <v>43518</v>
       </c>
@@ -1266,7 +1217,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>45</v>
@@ -1278,12 +1229,10 @@
         <v>-122.258157</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="4">
         <v>43518</v>
       </c>
@@ -1306,12 +1255,10 @@
         <v>-122.255095</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>43518</v>
       </c>
@@ -1322,7 +1269,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>52</v>
@@ -1334,12 +1281,10 @@
         <v>-122.241783</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>43518</v>
       </c>
@@ -1350,7 +1295,7 @@
         <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>55</v>
@@ -1362,11 +1307,10 @@
         <v>-122.260716</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>43518</v>
       </c>
@@ -1380,7 +1324,7 @@
         <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F19">
         <v>37.868552999999999</v>
@@ -1389,11 +1333,10 @@
         <v>-122.261796</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>43518</v>
       </c>
@@ -1407,7 +1350,7 @@
         <v>61</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F20">
         <v>37.866630999999998</v>
@@ -1416,11 +1359,10 @@
         <v>-122.26108000000001</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>43518</v>
       </c>
@@ -1428,13 +1370,13 @@
         <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F21">
         <v>37.866793999999999</v>
@@ -1443,12 +1385,10 @@
         <v>-122.25897999999999</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>43518</v>
       </c>
@@ -1462,7 +1402,7 @@
         <v>65</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F22">
         <v>37.868552999999999</v>
@@ -1471,11 +1411,10 @@
         <v>-122.261796</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>43518</v>
       </c>
@@ -1489,7 +1428,7 @@
         <v>68</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F23">
         <v>37.863982</v>
@@ -1498,12 +1437,10 @@
         <v>-122.26741199999999</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>43518</v>
       </c>
@@ -1511,13 +1448,13 @@
         <v>69</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F24">
         <v>37.866630999999998</v>
@@ -1526,12 +1463,10 @@
         <v>-122.26108000000001</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>43518</v>
       </c>
@@ -1545,7 +1480,7 @@
         <v>72</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F25">
         <v>37.864285000000002</v>
@@ -1554,11 +1489,10 @@
         <v>-122.250337</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>43518</v>
       </c>
@@ -1572,7 +1506,7 @@
         <v>75</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F26">
         <v>37.884388000000001</v>
@@ -1581,29 +1515,24 @@
         <v>-122.298287</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="L26" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4">
+        <v>43518</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="4">
-        <v>43518</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F27">
         <v>37.864517999999997</v>
@@ -1612,27 +1541,24 @@
         <v>-122.258605</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L27" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4">
+        <v>43518</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="4">
-        <v>43518</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F28">
         <v>37.867845000000003</v>
@@ -1641,27 +1567,24 @@
         <v>-122.26588</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L28" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4">
+        <v>43518</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="4">
-        <v>43518</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F29">
         <v>37.866028</v>
@@ -1670,27 +1593,24 @@
         <v>-122.25864199999999</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>43518</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F30">
         <v>37.868757000000002</v>
@@ -1699,27 +1619,24 @@
         <v>-122.26038800000001</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>43518</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F31">
         <v>37.870016999999997</v>
@@ -1728,27 +1645,24 @@
         <v>-122.265091</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <v>43518</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F32">
         <v>37.874217999999999</v>
@@ -1757,27 +1671,24 @@
         <v>-122.259586</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <v>43518</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F33">
         <v>37.866230000000002</v>
@@ -1786,27 +1697,24 @@
         <v>-122.25484</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <v>43518</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F34">
         <v>37.873618</v>
@@ -1815,10 +1723,7 @@
         <v>-122.254434</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/02222019.xlsx
+++ b/data/xlsx/02222019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95A0D94-88D2-D845-9E92-4A712E6661DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5910F7-7CF9-E940-8EBA-BE695978A80C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,6 +437,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -487,8 +490,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -869,7 +872,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43518</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -895,7 +898,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43518</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -921,7 +924,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>43518</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -947,7 +950,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>43518</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -973,7 +976,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="140">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>43518</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -999,7 +1002,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>43518</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1025,7 +1028,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>43518</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1051,7 +1054,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>43518</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1077,7 +1080,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>43518</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1103,7 +1106,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>43518</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1129,7 +1132,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="196">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>43518</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1155,7 +1158,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>43518</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1181,7 +1184,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>43518</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1207,7 +1210,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>43518</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1233,7 +1236,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>43518</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1259,7 +1262,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>43518</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1285,7 +1288,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>43518</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1311,7 +1314,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>43518</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1329,7 +1332,7 @@
       <c r="F19">
         <v>37.868552999999999</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>-122.261796</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -1337,7 +1340,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>43518</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1363,7 +1366,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>43518</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1381,7 +1384,7 @@
       <c r="F21">
         <v>37.866793999999999</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>-122.25897999999999</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -1389,7 +1392,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>43518</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1407,7 +1410,7 @@
       <c r="F22">
         <v>37.868552999999999</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>-122.261796</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -1415,7 +1418,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>43518</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1441,7 +1444,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>43518</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1467,7 +1470,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>43518</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1493,7 +1496,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>43518</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1519,7 +1522,7 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>43518</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1545,7 +1548,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>43518</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1571,7 +1574,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>43518</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1597,7 +1600,7 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <v>43518</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1623,7 +1626,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>43518</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1649,7 +1652,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <v>43518</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1675,7 +1678,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>43518</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1701,7 +1704,7 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <v>43518</v>
       </c>
       <c r="B34" s="2" t="s">
